--- a/test.xlsx
+++ b/test.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Line" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Area" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Stack" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Stack_m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -595,6 +596,658 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:t>積み上げ棒グラフ1</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="stacked"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Line'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$B$2:$B$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Line'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$C$2:$C$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Line'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$D$2:$D$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <overlap val="100"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>月</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="100"/>
+          <min val="0"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>回数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>積み上げ棒グラフ2</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="stacked"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Line'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$E$2:$E$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Line'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$F$2:$F$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Line'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$G$2:$G$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <overlap val="100"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>月</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="100"/>
+          <min val="0"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>回数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>積み上げ棒グラフ3</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="stacked"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Line'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$H$2:$H$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Line'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$I$2:$I$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Line'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$J$2:$J$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <overlap val="100"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>月</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="100"/>
+          <min val="0"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>回数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>積み上げ棒グラフ4</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="stacked"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Line'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$K$2:$K$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Line'!L1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$L$2:$L$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Line'!M1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Line'!$A$2:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Line'!$M$2:$M$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <overlap val="100"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>月</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="100"/>
+          <min val="0"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>回数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:t>面グラフ</a:t>
             </a:r>
           </a:p>
@@ -951,7 +1604,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1377,6 +2030,94 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -10659,4 +11400,315 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>'-</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>100歳以上</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>10代</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>20代</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>30代</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>40代</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>50代</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>60代</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>70代</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>80代</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>90代</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>不明</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>43890</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L5" t="n">
+        <v>27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>23</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>